--- a/Data/Tables/SeedDefine.xlsx
+++ b/Data/Tables/SeedDefine.xlsx
@@ -27,42 +27,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>描述</t>
   </si>
   <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>类别</t>
-  </si>
-  <si>
-    <t>道具等级</t>
-  </si>
-  <si>
-    <t>限制职业</t>
-  </si>
-  <si>
-    <t>使用CD(秒)</t>
-  </si>
-  <si>
-    <t>购买价格</t>
-  </si>
-  <si>
-    <t>销售价格</t>
-  </si>
-  <si>
-    <t>堆叠限制</t>
-  </si>
-  <si>
     <t>图标</t>
   </si>
   <si>
-    <t>功能</t>
-  </si>
-  <si>
-    <t>参数</t>
+    <t>种植的植物id</t>
+  </si>
+  <si>
+    <t>解锁等级</t>
+  </si>
+  <si>
+    <t>出售价格</t>
   </si>
   <si>
     <t>Integer</t>
@@ -71,15 +50,6 @@
     <t>String</t>
   </si>
   <si>
-    <t>Boolean</t>
-  </si>
-  <si>
-    <t>Float</t>
-  </si>
-  <si>
-    <t>Array</t>
-  </si>
-  <si>
     <t>Key</t>
   </si>
   <si>
@@ -92,49 +62,43 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>LimitClass</t>
-  </si>
-  <si>
-    <t>CanUse</t>
-  </si>
-  <si>
-    <t>UseCD</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>SellPrice</t>
-  </si>
-  <si>
-    <t>StackLimit</t>
-  </si>
-  <si>
     <t>Icon</t>
   </si>
   <si>
-    <t>Function</t>
-  </si>
-  <si>
-    <t>Param</t>
-  </si>
-  <si>
-    <t>Params</t>
-  </si>
-  <si>
-    <t>测试Item</t>
-  </si>
-  <si>
-    <t>测试测试</t>
+    <t>TargetPlant</t>
+  </si>
+  <si>
+    <t>UnlockLevel</t>
+  </si>
+  <si>
+    <t>TradingPrice</t>
+  </si>
+  <si>
+    <t>测试种子1</t>
+  </si>
+  <si>
+    <t>种子1种子1种子1</t>
+  </si>
+  <si>
+    <t>种子1</t>
+  </si>
+  <si>
+    <t>测试种子2</t>
+  </si>
+  <si>
+    <t>种子2种子2种子2</t>
+  </si>
+  <si>
+    <t>种子2</t>
+  </si>
+  <si>
+    <t>测试种子3</t>
+  </si>
+  <si>
+    <t>种子1种子1种子2</t>
+  </si>
+  <si>
+    <t>种子3</t>
   </si>
 </sst>
 </file>
@@ -861,7 +825,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -870,7 +834,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -888,9 +851,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -954,7 +914,7 @@
     <cellStyle name="好 2" xfId="57"/>
     <cellStyle name="适中 2" xfId="58"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="8">
     <dxf>
       <font>
         <name val="微软雅黑"/>
@@ -1046,20 +1006,18 @@
     </dxf>
     <dxf>
       <font>
-        <name val="微软雅黑"/>
+        <name val="Calibri"/>
         <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="9"/>
+        <sz val="11"/>
         <color auto="1"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -1078,150 +1036,6 @@
       </fill>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color theme="1"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color theme="1"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color theme="1"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color theme="1"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color theme="1"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1233,26 +1047,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:Q58" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:Q58" etc:filterBottomFollowUsedRange="0"/>
-  <tableColumns count="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:H58" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:H58" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="Key" dataDxfId="0"/>
     <tableColumn id="3" name="ID" dataDxfId="1"/>
     <tableColumn id="5" name="Name" dataDxfId="2"/>
     <tableColumn id="98" name="Description" dataDxfId="3"/>
-    <tableColumn id="2" name="Type" dataDxfId="4"/>
-    <tableColumn id="8" name="Category" dataDxfId="5"/>
-    <tableColumn id="15" name="Level" dataDxfId="6"/>
-    <tableColumn id="16" name="LimitClass" dataDxfId="7"/>
-    <tableColumn id="7" name="CanUse" dataDxfId="8"/>
-    <tableColumn id="10" name="UseCD" dataDxfId="9"/>
-    <tableColumn id="12" name="Price" dataDxfId="10"/>
-    <tableColumn id="11" name="SellPrice" dataDxfId="11"/>
-    <tableColumn id="13" name="StackLimit" dataDxfId="12"/>
-    <tableColumn id="14" name="Icon" dataDxfId="13"/>
-    <tableColumn id="4" name="Function" dataDxfId="14"/>
-    <tableColumn id="6" name="Param" dataDxfId="15"/>
-    <tableColumn id="9" name="Params" dataDxfId="16"/>
+    <tableColumn id="2" name="Icon" dataDxfId="4"/>
+    <tableColumn id="8" name="TargetPlant" dataDxfId="5"/>
+    <tableColumn id="4" name="UnlockLevel" dataDxfId="6"/>
+    <tableColumn id="15" name="TradingPrice" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1545,170 +1350,92 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.2857142857143" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="16.2857142857143" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9.42857142857143" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.28571428571429" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.7142857142857" style="2" customWidth="1"/>
     <col min="4" max="4" width="42.847619047619" style="3" customWidth="1"/>
-    <col min="5" max="13" width="16.2857142857143" style="3"/>
-    <col min="14" max="14" width="24.4285714285714" style="3" customWidth="1"/>
-    <col min="15" max="15" width="32.5714285714286" style="4" customWidth="1"/>
-    <col min="16" max="16384" width="16.2857142857143" style="5"/>
+    <col min="5" max="7" width="16.2857142857143" style="3"/>
+    <col min="9" max="16384" width="16.2857142857143" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5" t="s">
+    </row>
+    <row r="2" spans="2:8">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="2:17">
-      <c r="B2" s="2" t="s">
+      <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="G3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:4">
+    </row>
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1716,13 +1443,25 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1001</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1730,13 +1469,25 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1002</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1744,996 +1495,595 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1003</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="14.25" spans="1:7">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="8"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="9"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="9"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="9"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="9"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="9"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>11</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>12</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>13</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>14</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>15</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>16</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="2"/>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>17</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="2"/>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>18</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="2"/>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>19</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="2"/>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>20</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="2"/>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>21</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="2"/>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>22</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="2"/>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="D25" s="8"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>23</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="2"/>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>24</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="2"/>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="D27" s="8"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>25</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="2"/>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>26</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="2"/>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="D29" s="8"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>27</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="2"/>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="D30" s="8"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>28</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="2"/>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="D31" s="8"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>29</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="2"/>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="D32" s="8"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>30</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="2"/>
-    </row>
-    <row r="34" spans="1:15">
+      <c r="D33" s="8"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>31</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="2"/>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="D34" s="8"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>32</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="2"/>
-    </row>
-    <row r="36" spans="1:15">
+      <c r="D35" s="8"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>33</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="2"/>
-    </row>
-    <row r="37" spans="1:15">
+      <c r="D36" s="8"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>34</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="2"/>
-    </row>
-    <row r="38" spans="1:15">
+      <c r="D37" s="8"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>35</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="1:15">
+      <c r="D38" s="8"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>36</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="2"/>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="D39" s="8"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>37</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="2"/>
-    </row>
-    <row r="41" spans="1:15">
+      <c r="D40" s="8"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>38</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="2"/>
-    </row>
-    <row r="42" spans="1:15">
+      <c r="D41" s="8"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>39</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="2"/>
-    </row>
-    <row r="43" spans="1:15">
+      <c r="D42" s="8"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>40</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="2"/>
-    </row>
-    <row r="44" spans="1:15">
+      <c r="D43" s="8"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>41</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="2"/>
-    </row>
-    <row r="45" spans="1:15">
+      <c r="D44" s="8"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>42</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="2"/>
-    </row>
-    <row r="46" spans="1:15">
+      <c r="D45" s="8"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>43</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="2"/>
-    </row>
-    <row r="47" spans="1:15">
+      <c r="D46" s="8"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>44</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="2"/>
-    </row>
-    <row r="48" spans="1:15">
+      <c r="D47" s="8"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>45</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="2"/>
-    </row>
-    <row r="49" spans="1:15">
+      <c r="D48" s="8"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>46</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="2"/>
-    </row>
-    <row r="50" spans="1:15">
+      <c r="D49" s="8"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>47</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="2"/>
-    </row>
-    <row r="51" spans="1:15">
+      <c r="D50" s="8"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>48</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="2"/>
-    </row>
-    <row r="52" spans="1:15">
+      <c r="D51" s="8"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>49</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="2"/>
-    </row>
-    <row r="53" spans="1:15">
+      <c r="D52" s="8"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>50</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="2"/>
-    </row>
-    <row r="54" spans="1:15">
+      <c r="D53" s="8"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>51</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="2"/>
-    </row>
-    <row r="55" spans="1:15">
+      <c r="D54" s="8"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>52</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="2"/>
-    </row>
-    <row r="56" spans="1:15">
+      <c r="D55" s="8"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>53</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="11"/>
-      <c r="M56" s="11"/>
-      <c r="N56" s="11"/>
-      <c r="O56" s="2"/>
-    </row>
-    <row r="57" spans="1:15">
+      <c r="D56" s="8"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>54</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="2"/>
-    </row>
-    <row r="58" spans="1:15">
+      <c r="D57" s="8"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>55</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="2"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
